--- a/BusinessRules/Rules.xlsx
+++ b/BusinessRules/Rules.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="2760" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="LoyaltyDiscounts" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="92">
   <si>
     <t>UserType</t>
   </si>
@@ -290,6 +290,9 @@
   </si>
   <si>
     <t>Mushroom Balls, Falafal, Tomato Soup, Veg Salad</t>
+  </si>
+  <si>
+    <t>NewYear Eve</t>
   </si>
 </sst>
 </file>
@@ -707,7 +710,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -812,6 +815,12 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -852,12 +861,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -865,6 +868,9 @@
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1193,12 +1199,12 @@
   <sheetData>
     <row r="1" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="38"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="40"/>
     </row>
     <row r="3" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="4"/>
@@ -1315,10 +1321,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:H28"/>
+  <dimension ref="B1:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25:H26"/>
+    <sheetView tabSelected="1" topLeftCell="D7" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1334,15 +1340,15 @@
   <sheetData>
     <row r="1" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="38"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="40"/>
     </row>
     <row r="3" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="29" t="s">
@@ -1379,10 +1385,10 @@
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="47" t="s">
+      <c r="B5" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="40" t="s">
+      <c r="C5" s="42" t="s">
         <v>54</v>
       </c>
       <c r="D5" s="23" t="s">
@@ -1398,8 +1404,8 @@
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B6" s="43"/>
-      <c r="C6" s="41"/>
+      <c r="B6" s="45"/>
+      <c r="C6" s="43"/>
       <c r="D6" s="24" t="s">
         <v>20</v>
       </c>
@@ -1413,8 +1419,8 @@
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="43"/>
-      <c r="C7" s="41"/>
+      <c r="B7" s="45"/>
+      <c r="C7" s="43"/>
       <c r="D7" s="24" t="s">
         <v>21</v>
       </c>
@@ -1428,8 +1434,8 @@
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="43"/>
-      <c r="C8" s="41"/>
+      <c r="B8" s="45"/>
+      <c r="C8" s="43"/>
       <c r="D8" s="24" t="s">
         <v>22</v>
       </c>
@@ -1443,8 +1449,8 @@
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="43"/>
-      <c r="C9" s="41"/>
+      <c r="B9" s="45"/>
+      <c r="C9" s="43"/>
       <c r="D9" s="24" t="s">
         <v>23</v>
       </c>
@@ -1458,8 +1464,8 @@
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="43"/>
-      <c r="C10" s="41"/>
+      <c r="B10" s="45"/>
+      <c r="C10" s="43"/>
       <c r="D10" s="24" t="s">
         <v>30</v>
       </c>
@@ -1473,8 +1479,8 @@
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="43"/>
-      <c r="C11" s="41"/>
+      <c r="B11" s="45"/>
+      <c r="C11" s="43"/>
       <c r="D11" s="24" t="s">
         <v>20</v>
       </c>
@@ -1492,42 +1498,42 @@
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B12" s="43"/>
-      <c r="C12" s="41"/>
+      <c r="B12" s="45"/>
+      <c r="C12" s="43"/>
       <c r="D12" s="24" t="s">
         <v>34</v>
       </c>
       <c r="E12" s="27">
         <v>43576</v>
       </c>
-      <c r="F12" s="49">
+      <c r="F12" s="54">
         <v>43574</v>
       </c>
       <c r="G12" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="H12" s="55" t="s">
+      <c r="H12" s="56" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B13" s="43"/>
-      <c r="C13" s="41"/>
+      <c r="B13" s="45"/>
+      <c r="C13" s="43"/>
       <c r="D13" s="24" t="s">
         <v>19</v>
       </c>
       <c r="E13" s="27">
         <v>43577</v>
       </c>
-      <c r="F13" s="49"/>
+      <c r="F13" s="54"/>
       <c r="G13" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="H13" s="55"/>
+      <c r="H13" s="56"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B14" s="43"/>
-      <c r="C14" s="41"/>
+      <c r="B14" s="45"/>
+      <c r="C14" s="43"/>
       <c r="D14" s="24" t="s">
         <v>46</v>
       </c>
@@ -1545,8 +1551,8 @@
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B15" s="43"/>
-      <c r="C15" s="41"/>
+      <c r="B15" s="45"/>
+      <c r="C15" s="43"/>
       <c r="D15" s="24" t="s">
         <v>22</v>
       </c>
@@ -1564,15 +1570,15 @@
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B16" s="43"/>
-      <c r="C16" s="41"/>
+      <c r="B16" s="45"/>
+      <c r="C16" s="43"/>
       <c r="D16" s="24" t="s">
         <v>34</v>
       </c>
       <c r="E16" s="27">
         <v>43625</v>
       </c>
-      <c r="F16" s="49">
+      <c r="F16" s="54">
         <v>43628</v>
       </c>
       <c r="G16" s="24" t="s">
@@ -1583,15 +1589,15 @@
       </c>
     </row>
     <row r="17" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="48"/>
-      <c r="C17" s="42"/>
+      <c r="B17" s="50"/>
+      <c r="C17" s="44"/>
       <c r="D17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="E17" s="27">
         <v>43626</v>
       </c>
-      <c r="F17" s="54"/>
+      <c r="F17" s="55"/>
       <c r="G17" s="25" t="s">
         <v>40</v>
       </c>
@@ -1609,10 +1615,10 @@
       <c r="H18" s="33"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B19" s="43" t="s">
+      <c r="B19" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="45" t="s">
+      <c r="C19" s="47" t="s">
         <v>55</v>
       </c>
       <c r="D19" s="24" t="s">
@@ -1628,8 +1634,8 @@
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B20" s="43"/>
-      <c r="C20" s="45"/>
+      <c r="B20" s="45"/>
+      <c r="C20" s="47"/>
       <c r="D20" s="24" t="s">
         <v>20</v>
       </c>
@@ -1643,8 +1649,8 @@
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B21" s="43"/>
-      <c r="C21" s="45"/>
+      <c r="B21" s="45"/>
+      <c r="C21" s="47"/>
       <c r="D21" s="24" t="s">
         <v>21</v>
       </c>
@@ -1658,8 +1664,8 @@
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B22" s="43"/>
-      <c r="C22" s="45"/>
+      <c r="B22" s="45"/>
+      <c r="C22" s="47"/>
       <c r="D22" s="24" t="s">
         <v>22</v>
       </c>
@@ -1673,8 +1679,8 @@
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B23" s="43"/>
-      <c r="C23" s="45"/>
+      <c r="B23" s="45"/>
+      <c r="C23" s="47"/>
       <c r="D23" s="24" t="s">
         <v>23</v>
       </c>
@@ -1688,8 +1694,8 @@
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B24" s="43"/>
-      <c r="C24" s="45"/>
+      <c r="B24" s="45"/>
+      <c r="C24" s="47"/>
       <c r="D24" s="24" t="s">
         <v>30</v>
       </c>
@@ -1703,16 +1709,16 @@
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B25" s="43"/>
-      <c r="C25" s="45"/>
+      <c r="B25" s="45"/>
+      <c r="C25" s="47"/>
       <c r="D25" s="24" t="s">
         <v>20</v>
       </c>
       <c r="E25" s="27">
         <v>43459</v>
       </c>
-      <c r="F25" s="50">
-        <v>43457</v>
+      <c r="F25" s="51">
+        <v>43458</v>
       </c>
       <c r="G25" s="24" t="s">
         <v>41</v>
@@ -1721,44 +1727,63 @@
         <v>73</v>
       </c>
     </row>
-    <row r="26" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="44"/>
-      <c r="C26" s="46"/>
-      <c r="D26" s="26" t="s">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B26" s="45"/>
+      <c r="C26" s="47"/>
+      <c r="D26" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="E26" s="28">
+      <c r="E26" s="36">
         <v>43460</v>
       </c>
       <c r="F26" s="51"/>
-      <c r="G26" s="26" t="s">
+      <c r="G26" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="H26" s="53"/>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B28" s="39" t="s">
+      <c r="H26" s="52"/>
+    </row>
+    <row r="27" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="46"/>
+      <c r="C27" s="48"/>
+      <c r="D27" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="E27" s="28">
+        <v>43465</v>
+      </c>
+      <c r="F27" s="28">
+        <v>43465</v>
+      </c>
+      <c r="G27" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="H27" s="37" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B29" s="41" t="s">
         <v>59</v>
       </c>
-      <c r="C28" s="39"/>
-      <c r="D28" s="39"/>
-      <c r="E28" s="39"/>
-      <c r="F28" s="35"/>
+      <c r="C29" s="41"/>
+      <c r="D29" s="41"/>
+      <c r="E29" s="41"/>
+      <c r="F29" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="B29:E29"/>
     <mergeCell ref="C5:C17"/>
-    <mergeCell ref="B19:B26"/>
-    <mergeCell ref="C19:C26"/>
+    <mergeCell ref="B19:B27"/>
+    <mergeCell ref="C19:C27"/>
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="B5:B17"/>
     <mergeCell ref="F25:F26"/>
-    <mergeCell ref="H25:H26"/>
     <mergeCell ref="F12:F13"/>
     <mergeCell ref="F16:F17"/>
     <mergeCell ref="H16:H17"/>
     <mergeCell ref="H12:H13"/>
+    <mergeCell ref="H25:H26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/BusinessRules/Rules.xlsx
+++ b/BusinessRules/Rules.xlsx
@@ -4,20 +4,19 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="LoyaltyDiscounts" sheetId="1" r:id="rId1"/>
     <sheet name="FoodPlan" sheetId="2" r:id="rId2"/>
     <sheet name="ObservanceDays" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="77">
   <si>
     <t>UserType</t>
   </si>
@@ -178,9 +177,6 @@
     <t>Fish Day</t>
   </si>
   <si>
-    <t>Veg Day</t>
-  </si>
-  <si>
     <t>1 to 6</t>
   </si>
   <si>
@@ -193,9 +189,6 @@
     <t>Year - 2018</t>
   </si>
   <si>
-    <t>Chicken Day</t>
-  </si>
-  <si>
     <t>NOTE : ALL Special Menu to be given 1 Day before the Actual Holiday</t>
   </si>
   <si>
@@ -220,76 +213,40 @@
     <t>31st Dec 2018</t>
   </si>
   <si>
-    <t>Best of salads</t>
-  </si>
-  <si>
-    <t>Best of Soups</t>
-  </si>
-  <si>
-    <t>Day of Week</t>
-  </si>
-  <si>
-    <t>Menu</t>
-  </si>
-  <si>
-    <t>Veg Salad, Veg Burger, Tomato Soup, Potato Mash</t>
-  </si>
-  <si>
     <t>Day to consider</t>
   </si>
   <si>
-    <t>Poffertjes, Pork Rib Roast, Smoked Fish cake, Steak with Mashed Potatoes, Ratatouille Salad</t>
-  </si>
-  <si>
-    <t>Kip Burger, Grilled Kip, Kip Soup, Potato Mash, Tomato Soup</t>
-  </si>
-  <si>
-    <t>Veg Soup, Mixed Soup, Veg Burger, Kip Burger, Kip Millet</t>
-  </si>
-  <si>
-    <t>Kip Falafal, Kip Grilled, Veggie Pasta Salad, Kip Gnocchi Soup, Veg Pasta</t>
-  </si>
-  <si>
-    <t>Meat Day</t>
-  </si>
-  <si>
-    <t>SeaFood Fries, Macaroni Salad, Pasta Salad, Fish Millet, Veg Soup ,Kip Soup</t>
-  </si>
-  <si>
-    <t>Veg Salad, Kip Salad, Fish Salad, Kip Soup</t>
-  </si>
-  <si>
-    <t>Beef Roast, Grilled Meat, Meat Soup, Veg Soup</t>
-  </si>
-  <si>
-    <t>Raw Fish, Fish Millet, Mixed Salad, Veg Soup, Kip Soup</t>
-  </si>
-  <si>
-    <t>Ratatouille Salad, Egg Salad, Meat Sandwich, Beef Roast</t>
-  </si>
-  <si>
-    <t>Fish Millet, Fish Salad, Kip Fajitas, Meat Soup, Macaroni Pasta</t>
-  </si>
-  <si>
-    <t>Kip Pasta Soup, Veg Lentil Tortilla Soup, Pork&amp;Bean Soup, Veg Salad</t>
-  </si>
-  <si>
-    <t>Poffertjes, Pork Rib Roast, Ratatouille Salad, Pasta Salad</t>
-  </si>
-  <si>
-    <t>Poffertjes, Smoked Fish cake, Steak Salad, Ratatouille Salad</t>
-  </si>
-  <si>
-    <t>Smoked Fish cake, Pork Rib Roast, Steak with Mashed Potatoes, Kip Soup, Veg Salad</t>
-  </si>
-  <si>
-    <t>Grill Potato, Baked Kip, Potato Mash, Macaroni Pasta Salad</t>
-  </si>
-  <si>
-    <t>Cheese Ball, Veg Sandwich, Fish Millet, Kip Millet, Grill Meat with peanut sauce</t>
-  </si>
-  <si>
-    <t>Mushroom Balls, Falafal, Tomato Soup, Veg Salad</t>
+    <t>Veg Salad, Veg Soup, Veg Sandwich, Chicken Sandwich</t>
+  </si>
+  <si>
+    <t>Veg Soup, Chicken Soup, Veg Salad, Chicken Salad</t>
+  </si>
+  <si>
+    <t>Veg Soup, Chicken Soup, Meat Salad, Meat Pasta</t>
+  </si>
+  <si>
+    <t>Chicken Soup, Chicken Sandwich, Chicken Pasta, Veg Sandwich</t>
+  </si>
+  <si>
+    <t>Fish Fries, Fish Salad, Veg Pasta, Chicken Pasta</t>
+  </si>
+  <si>
+    <t>Veg Soup, Chicken Soup, Chicken Sandwich, Veg Pasta</t>
+  </si>
+  <si>
+    <t>Tomato Soup, Meat Soup, Veg Salad, Chicken Salad</t>
+  </si>
+  <si>
+    <t>Veg Soup, Meat Soup, Chicken Sandwich, Veg Pasta</t>
+  </si>
+  <si>
+    <t>Grilled Meat, Mushroom Balls, Veg Pasta, Chicken Pasta, Fish Fries, Veg Soup, Chicken Soup</t>
+  </si>
+  <si>
+    <t>Chicken Salad, Chicken Sandwich, Chicken Pasta, Veg Sandwich</t>
+  </si>
+  <si>
+    <t>Veg Salad, Veg Soup, Veg Sandwich, Chicken Pasta</t>
   </si>
 </sst>
 </file>
@@ -852,25 +809,25 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1317,8 +1274,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25:H26"/>
+    <sheetView topLeftCell="D16" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12:H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1346,7 +1303,7 @@
     </row>
     <row r="3" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C3" s="15"/>
       <c r="D3" s="5"/>
@@ -1369,7 +1326,7 @@
         <v>26</v>
       </c>
       <c r="F4" s="18" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="G4" s="18" t="s">
         <v>31</v>
@@ -1383,18 +1340,16 @@
         <v>29</v>
       </c>
       <c r="C5" s="40" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D5" s="23" t="s">
         <v>19</v>
       </c>
       <c r="E5" s="23"/>
       <c r="F5" s="23"/>
-      <c r="G5" s="23" t="s">
-        <v>53</v>
-      </c>
+      <c r="G5" s="23"/>
       <c r="H5" s="22" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
@@ -1405,11 +1360,9 @@
       </c>
       <c r="E6" s="24"/>
       <c r="F6" s="24"/>
-      <c r="G6" s="24" t="s">
-        <v>67</v>
-      </c>
+      <c r="G6" s="24"/>
       <c r="H6" s="8" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
@@ -1420,11 +1373,9 @@
       </c>
       <c r="E7" s="24"/>
       <c r="F7" s="24"/>
-      <c r="G7" s="24" t="s">
-        <v>77</v>
-      </c>
+      <c r="G7" s="24"/>
       <c r="H7" s="8" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
@@ -1435,11 +1386,9 @@
       </c>
       <c r="E8" s="24"/>
       <c r="F8" s="24"/>
-      <c r="G8" s="24" t="s">
-        <v>58</v>
-      </c>
+      <c r="G8" s="24"/>
       <c r="H8" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
@@ -1454,7 +1403,7 @@
         <v>52</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
@@ -1465,11 +1414,9 @@
       </c>
       <c r="E10" s="24"/>
       <c r="F10" s="24"/>
-      <c r="G10" s="24" t="s">
-        <v>68</v>
-      </c>
+      <c r="G10" s="24"/>
       <c r="H10" s="8" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
@@ -1488,7 +1435,7 @@
         <v>32</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
@@ -1500,14 +1447,14 @@
       <c r="E12" s="27">
         <v>43576</v>
       </c>
-      <c r="F12" s="49">
+      <c r="F12" s="51">
         <v>43574</v>
       </c>
       <c r="G12" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="H12" s="55" t="s">
-        <v>85</v>
+      <c r="H12" s="54" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
@@ -1519,11 +1466,11 @@
       <c r="E13" s="27">
         <v>43577</v>
       </c>
-      <c r="F13" s="49"/>
+      <c r="F13" s="51"/>
       <c r="G13" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="H13" s="55"/>
+      <c r="H13" s="54"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B14" s="43"/>
@@ -1540,9 +1487,7 @@
       <c r="G14" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="H14" s="8" t="s">
-        <v>88</v>
-      </c>
+      <c r="H14" s="54"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B15" s="43"/>
@@ -1559,9 +1504,7 @@
       <c r="G15" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="H15" s="8" t="s">
-        <v>89</v>
-      </c>
+      <c r="H15" s="54"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B16" s="43"/>
@@ -1572,15 +1515,13 @@
       <c r="E16" s="27">
         <v>43625</v>
       </c>
-      <c r="F16" s="49">
+      <c r="F16" s="51">
         <v>43628</v>
       </c>
       <c r="G16" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="H16" s="52" t="s">
-        <v>86</v>
-      </c>
+      <c r="H16" s="54"/>
     </row>
     <row r="17" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="48"/>
@@ -1591,15 +1532,15 @@
       <c r="E17" s="27">
         <v>43626</v>
       </c>
-      <c r="F17" s="54"/>
+      <c r="F17" s="52"/>
       <c r="G17" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="H17" s="53"/>
+      <c r="H17" s="55"/>
     </row>
     <row r="18" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="34" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C18" s="30"/>
       <c r="D18" s="31"/>
@@ -1613,18 +1554,16 @@
         <v>28</v>
       </c>
       <c r="C19" s="45" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D19" s="24" t="s">
         <v>19</v>
       </c>
       <c r="E19" s="24"/>
       <c r="F19" s="24"/>
-      <c r="G19" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="H19" s="8" t="s">
-        <v>71</v>
+      <c r="G19" s="23"/>
+      <c r="H19" s="22" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
@@ -1635,11 +1574,9 @@
       </c>
       <c r="E20" s="24"/>
       <c r="F20" s="24"/>
-      <c r="G20" s="24" t="s">
+      <c r="G20" s="24"/>
+      <c r="H20" s="8" t="s">
         <v>67</v>
-      </c>
-      <c r="H20" s="8" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
@@ -1650,11 +1587,9 @@
       </c>
       <c r="E21" s="24"/>
       <c r="F21" s="24"/>
-      <c r="G21" s="24" t="s">
-        <v>77</v>
-      </c>
+      <c r="G21" s="24"/>
       <c r="H21" s="8" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
@@ -1665,11 +1600,9 @@
       </c>
       <c r="E22" s="24"/>
       <c r="F22" s="24"/>
-      <c r="G22" s="24" t="s">
-        <v>58</v>
-      </c>
+      <c r="G22" s="24"/>
       <c r="H22" s="8" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
@@ -1684,7 +1617,7 @@
         <v>52</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
@@ -1695,11 +1628,9 @@
       </c>
       <c r="E24" s="24"/>
       <c r="F24" s="24"/>
-      <c r="G24" s="24" t="s">
-        <v>68</v>
-      </c>
+      <c r="G24" s="24"/>
       <c r="H24" s="8" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
@@ -1711,14 +1642,14 @@
       <c r="E25" s="27">
         <v>43459</v>
       </c>
-      <c r="F25" s="50">
+      <c r="F25" s="49">
         <v>43457</v>
       </c>
       <c r="G25" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="H25" s="52" t="s">
-        <v>73</v>
+      <c r="H25" s="53" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="26" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1730,7 +1661,7 @@
       <c r="E26" s="28">
         <v>43460</v>
       </c>
-      <c r="F26" s="51"/>
+      <c r="F26" s="50"/>
       <c r="G26" s="26" t="s">
         <v>42</v>
       </c>
@@ -1738,7 +1669,7 @@
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B28" s="39" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C28" s="39"/>
       <c r="D28" s="39"/>
@@ -1746,7 +1677,7 @@
       <c r="F28" s="35"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="11">
     <mergeCell ref="B28:E28"/>
     <mergeCell ref="C5:C17"/>
     <mergeCell ref="B19:B26"/>
@@ -1757,8 +1688,7 @@
     <mergeCell ref="H25:H26"/>
     <mergeCell ref="F12:F13"/>
     <mergeCell ref="F16:F17"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="H12:H17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1769,8 +1699,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1783,7 +1713,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="21" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B1" s="19" t="s">
         <v>23</v>
@@ -1797,7 +1727,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B2" s="19" t="s">
         <v>46</v>
@@ -1811,7 +1741,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="21" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B3" s="19" t="s">
         <v>34</v>
@@ -1831,7 +1761,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="21" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B5" s="19" t="s">
         <v>21</v>
@@ -1845,7 +1775,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B6" s="19" t="s">
         <v>22</v>
@@ -1859,7 +1789,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="21" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B7" s="19" t="s">
         <v>19</v>
@@ -1873,7 +1803,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="21" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B8" s="19" t="s">
         <v>19</v>
@@ -1897,65 +1827,4 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D5:E12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="5" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D5" t="s">
-        <v>69</v>
-      </c>
-      <c r="E5" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="6" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D11" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="12" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D12" t="s">
-        <v>34</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>